--- a/_resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
+++ b/_resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -69,6 +69,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -77,6 +78,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -94,6 +96,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -102,6 +105,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -119,6 +123,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -127,6 +132,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -141,6 +147,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -149,6 +156,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -166,6 +174,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -174,6 +183,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -189,6 +199,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 11 大于
@@ -208,6 +219,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -216,6 +228,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -232,6 +245,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -240,6 +254,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -256,6 +271,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -264,6 +280,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -578,7 +595,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ConditionTrigger=std::vector&lt;{}&gt;</t>
+    <r>
+      <t>ConditionTrigger=1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>std::vector&lt;{}&gt;,条件触发数据</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -597,18 +626,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -616,6 +648,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -623,17 +656,20 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -771,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +876,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,7 +1275,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1245,7 +1284,7 @@
     <col min="2" max="2" width="29.875" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.875" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="20" customWidth="1"/>
     <col min="8" max="8" width="27.25" style="20" bestFit="1" customWidth="1"/>
@@ -1271,7 +1310,7 @@
       <c r="D1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="23" t="s">
         <v>89</v>
       </c>
     </row>

--- a/_resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
+++ b/_resource/excel/table/K-框架-条件定义-(框架定义,后端维护).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t>条件名称</t>
   </si>
@@ -608,6 +608,26 @@
       </rPr>
       <t>std::vector&lt;{}&gt;,条件触发数据</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗场数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1272,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2101,6 +2121,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0</v>
+      </c>
+      <c r="H22" s="20">
+        <v>3</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="20">
+        <v>16</v>
+      </c>
+      <c r="K22" s="20">
+        <v>0</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0</v>
+      </c>
+      <c r="M22" s="20">
+        <v>1</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0</v>
+      </c>
+      <c r="O22" s="20">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C15">
